--- a/Bin/cehuaxlsx/ObjData.xlsx
+++ b/Bin/cehuaxlsx/ObjData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TableControl\Bin\cehuaxlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TableControl\Bin\cehuaxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,7 +39,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>path</t>
+    <t>currentHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objtype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -402,7 +410,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,28 +418,55 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2">
         <v>10001</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3">
         <v>10002</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
     </row>
